--- a/homeworks/homework_10/yevhenii_vinichenko/1-8_benchmarks-results-M4.xlsx
+++ b/homeworks/homework_10/yevhenii_vinichenko/1-8_benchmarks-results-M4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr date1904="1" updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TIMSS2019\Reports\International Reports\REPORTS WEB\download\achievement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevhe\Documents\TWD\2021Z-DataVisualizationTechniques\homeworks\homework_10\yevhenii_vinichenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C32AF6-18C9-4CE8-9DBC-A6D56A1EBF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4 MAT" sheetId="13" r:id="rId1"/>
@@ -99,18 +100,12 @@
     <t>Ireland</t>
   </si>
   <si>
-    <t>Turkey (5)</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Norway (5)</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -220,9 +215,6 @@
   </si>
   <si>
     <t>Morocco</t>
-  </si>
-  <si>
-    <t>South Africa (5)</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
@@ -284,12 +276,21 @@
   <si>
     <t>Low Benchmark
 (400)</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\(0.0\)"/>
@@ -927,67 +928,67 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Arrows_Comparison" xfId="1"/>
-    <cellStyle name="BenchMark_Header" xfId="2"/>
-    <cellStyle name="Countries" xfId="3"/>
-    <cellStyle name="Countries_List" xfId="4"/>
-    <cellStyle name="DataSheet" xfId="5"/>
-    <cellStyle name="DataSheet 2" xfId="20"/>
-    <cellStyle name="DataSheet 2 2" xfId="25"/>
-    <cellStyle name="DataSheet 3" xfId="22"/>
-    <cellStyle name="Description_Header" xfId="6"/>
-    <cellStyle name="Exhibit_Title" xfId="7"/>
-    <cellStyle name="Footnote_Bottom_Marker" xfId="8"/>
-    <cellStyle name="Footnote_Top_Marker" xfId="9"/>
-    <cellStyle name="Footnotes" xfId="10"/>
-    <cellStyle name="Footnotes 2" xfId="21"/>
-    <cellStyle name="Footnotes 2 2" xfId="26"/>
-    <cellStyle name="Footnotes 3" xfId="23"/>
-    <cellStyle name="Head_6.5_Cent_topborder" xfId="11"/>
-    <cellStyle name="Head_8_Cent" xfId="12"/>
+    <cellStyle name="Arrows_Comparison" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="BenchMark_Header" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Countries" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Countries_List" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DataSheet" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="DataSheet 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="DataSheet 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="DataSheet 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Description_Header" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Exhibit_Title" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Footnote_Bottom_Marker" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Footnote_Top_Marker" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnotes" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Footnotes 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Footnotes 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Footnotes 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Head_6.5_Cent_topborder" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Head_8_Cent" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8"/>
-    <cellStyle name="Index_Header" xfId="13"/>
+    <cellStyle name="Index_Header" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Numbers_Center" xfId="15"/>
-    <cellStyle name="Numbers_Right" xfId="16"/>
-    <cellStyle name="Numbers_S_Error" xfId="17"/>
-    <cellStyle name="RandS_Column" xfId="18"/>
-    <cellStyle name="Significance_Arrows" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Numbers_Center" xfId="15" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Numbers_Right" xfId="16" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Numbers_S_Error" xfId="17" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="RandS_Column" xfId="18" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Significance_Arrows" xfId="19" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1210,7 +1211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1277,7 +1284,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1285,14 +1298,20 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="22411" y="22412"/>
-          <a:ext cx="12448716" cy="960166"/>
+          <a:ext cx="12908157" cy="945225"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="12449030" cy="960166"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Picture 12"/>
+          <xdr:cNvPr id="13" name="Picture 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1321,7 +1340,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="Picture 13"/>
+          <xdr:cNvPr id="14" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1698,57 +1723,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.81640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.453125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.453125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.453125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1796875" style="1" customWidth="1"/>
     <col min="16" max="16" width="50" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" customWidth="1"/>
+    <col min="18" max="19" width="9.26953125" customWidth="1"/>
+    <col min="20" max="20" width="0.453125" customWidth="1"/>
     <col min="21" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" customWidth="1"/>
-    <col min="25" max="16384" width="14.28515625" style="1"/>
+    <col min="23" max="23" width="3.1796875" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" customWidth="1"/>
+    <col min="25" max="16384" width="14.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -1759,12 +1784,12 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="30"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1776,7 +1801,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" s="13" customFormat="1" ht="18.75" thickBot="1">
+    <row r="4" spans="1:24" s="13" customFormat="1" ht="18" thickBot="1">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -1796,55 +1821,55 @@
       <c r="X4"/>
     </row>
     <row r="5" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="74" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="46"/>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:24" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="75"/>
+      <c r="E6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="72"/>
+      <c r="K6" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-    </row>
-    <row r="6" spans="1:24" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="79"/>
-      <c r="E6" s="75" t="s">
+      <c r="L6" s="72"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="K6" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="75"/>
-    </row>
-    <row r="7" spans="1:24" ht="17.45" customHeight="1">
+      <c r="O6" s="72"/>
+    </row>
+    <row r="7" spans="1:24" ht="17.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3"/>
@@ -1875,7 +1900,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.45" customHeight="1">
+    <row r="8" spans="1:24" ht="17.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="60" t="s">
         <v>7</v>
@@ -1911,7 +1936,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17.45" customHeight="1">
+    <row r="9" spans="1:24" ht="17.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="59" t="s">
         <v>8</v>
@@ -1947,7 +1972,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.45" customHeight="1">
+    <row r="10" spans="1:24" ht="17.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="60" t="s">
         <v>8</v>
@@ -1983,7 +2008,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.45" customHeight="1">
+    <row r="11" spans="1:24" ht="17.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="59" t="s">
         <v>8</v>
@@ -2019,7 +2044,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.45" customHeight="1">
+    <row r="12" spans="1:24" ht="17.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="60" t="s">
         <v>7</v>
@@ -2055,7 +2080,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.45" customHeight="1">
+    <row r="13" spans="1:24" ht="17.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="59" t="s">
         <v>9</v>
@@ -2091,7 +2116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.45" customHeight="1">
+    <row r="14" spans="1:24" ht="17.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="60" t="s">
         <v>9</v>
@@ -2127,7 +2152,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.45" customHeight="1">
+    <row r="15" spans="1:24" ht="17.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="59" t="s">
         <v>8</v>
@@ -2163,13 +2188,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.45" customHeight="1">
+    <row r="16" spans="1:24" ht="17.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7">
@@ -2199,13 +2224,13 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17.45" customHeight="1">
+    <row r="17" spans="1:15" ht="17.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -2235,13 +2260,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17.45" customHeight="1">
+    <row r="18" spans="1:15" ht="17.5" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
@@ -2271,13 +2296,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17.45" customHeight="1">
+    <row r="19" spans="1:15" ht="17.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -2307,13 +2332,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="17.45" customHeight="1">
+    <row r="20" spans="1:15" ht="17.5" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7">
@@ -2343,13 +2368,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17.45" customHeight="1">
+    <row r="21" spans="1:15" ht="17.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
@@ -2379,13 +2404,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.45" customHeight="1">
+    <row r="22" spans="1:15" ht="17.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7">
@@ -2415,13 +2440,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.45" customHeight="1">
+    <row r="23" spans="1:15" ht="17.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4">
@@ -2451,13 +2476,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.45" customHeight="1">
+    <row r="24" spans="1:15" ht="17.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7">
@@ -2487,13 +2512,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="17.45" customHeight="1">
+    <row r="25" spans="1:15" ht="17.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4">
@@ -2523,13 +2548,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17.45" customHeight="1">
+    <row r="26" spans="1:15" ht="17.5" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7">
@@ -2559,13 +2584,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17.45" customHeight="1">
+    <row r="27" spans="1:15" ht="17.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4">
@@ -2595,13 +2620,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17.45" customHeight="1">
+    <row r="28" spans="1:15" ht="17.5" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
@@ -2631,13 +2656,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17.45" customHeight="1">
+    <row r="29" spans="1:15" ht="17.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4">
@@ -2667,13 +2692,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17.45" customHeight="1">
+    <row r="30" spans="1:15" ht="17.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7">
@@ -2703,13 +2728,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17.45" customHeight="1">
+    <row r="31" spans="1:15" ht="17.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4">
@@ -2739,13 +2764,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="17.45" customHeight="1">
+    <row r="32" spans="1:15" ht="17.5" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7">
@@ -2775,13 +2800,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="17.45" customHeight="1">
+    <row r="33" spans="1:15" ht="17.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4">
@@ -2811,13 +2836,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="17.45" customHeight="1">
+    <row r="34" spans="1:15" ht="17.5" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7">
@@ -2847,13 +2872,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="17.45" customHeight="1">
+    <row r="35" spans="1:15" ht="17.5" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4">
@@ -2883,13 +2908,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="17.45" customHeight="1">
+    <row r="36" spans="1:15" ht="17.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7">
@@ -2919,13 +2944,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="17.45" customHeight="1">
+    <row r="37" spans="1:15" ht="17.5" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4">
@@ -2955,13 +2980,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="17.45" customHeight="1">
+    <row r="38" spans="1:15" ht="17.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7">
@@ -2991,13 +3016,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="17.45" customHeight="1">
+    <row r="39" spans="1:15" ht="17.5" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4">
@@ -3027,13 +3052,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="17.45" customHeight="1">
+    <row r="40" spans="1:15" ht="17.5" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7">
@@ -3063,13 +3088,13 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="17.45" customHeight="1">
+    <row r="41" spans="1:15" ht="17.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4">
@@ -3099,13 +3124,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="17.45" customHeight="1">
+    <row r="42" spans="1:15" ht="17.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7">
@@ -3135,13 +3160,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="17.45" customHeight="1">
+    <row r="43" spans="1:15" ht="17.5" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4">
@@ -3171,13 +3196,13 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="17.45" customHeight="1">
+    <row r="44" spans="1:15" ht="17.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
@@ -3207,13 +3232,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="17.45" customHeight="1">
+    <row r="45" spans="1:15" ht="17.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4">
@@ -3243,13 +3268,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="17.45" customHeight="1">
+    <row r="46" spans="1:15" ht="17.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
@@ -3279,13 +3304,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="17.45" customHeight="1">
+    <row r="47" spans="1:15" ht="17.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4">
@@ -3315,13 +3340,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="17.45" customHeight="1">
+    <row r="48" spans="1:15" ht="17.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
@@ -3351,13 +3376,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="17.45" customHeight="1">
+    <row r="49" spans="1:24" ht="17.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4">
@@ -3387,13 +3412,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="17.45" customHeight="1">
+    <row r="50" spans="1:24" ht="17.5" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7">
@@ -3423,13 +3448,13 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="17.45" customHeight="1">
+    <row r="51" spans="1:24" ht="17.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4">
@@ -3459,13 +3484,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="17.45" customHeight="1">
+    <row r="52" spans="1:24" ht="17.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7">
@@ -3495,13 +3520,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="17.45" customHeight="1">
+    <row r="53" spans="1:24" ht="17.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4">
@@ -3531,13 +3556,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="17.45" customHeight="1">
+    <row r="54" spans="1:24" ht="17.5" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="7">
@@ -3567,13 +3592,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="17.45" customHeight="1">
+    <row r="55" spans="1:24" ht="17.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4">
@@ -3609,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="7">
@@ -3645,7 +3670,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4">
@@ -3681,7 +3706,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="7">
@@ -3717,7 +3742,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4">
@@ -3753,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="7">
@@ -3789,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4">
@@ -3825,7 +3850,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="7">
@@ -3861,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="50">
@@ -3906,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="7">
@@ -3940,7 +3965,7 @@
       <c r="A65" s="57"/>
       <c r="B65" s="61"/>
       <c r="C65" s="58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="55">
@@ -3963,7 +3988,7 @@
       </c>
       <c r="O65" s="56"/>
     </row>
-    <row r="66" spans="1:24" ht="23.1" customHeight="1" thickBot="1">
+    <row r="66" spans="1:24" ht="23.15" customHeight="1" thickBot="1">
       <c r="A66" s="31" t="s">
         <v>0</v>
       </c>
@@ -3973,13 +3998,13 @@
       <c r="F66" s="33"/>
       <c r="G66" s="35"/>
     </row>
-    <row r="67" spans="1:24" ht="17.45" customHeight="1">
+    <row r="67" spans="1:24" ht="17.5" customHeight="1">
       <c r="A67" s="9"/>
       <c r="B67" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="36">
@@ -4009,13 +4034,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="17.45" customHeight="1">
+    <row r="68" spans="1:24" ht="17.5" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="21">
@@ -4045,13 +4070,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17.45" customHeight="1">
+    <row r="69" spans="1:24" ht="17.5" customHeight="1">
       <c r="A69" s="9"/>
       <c r="B69" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="26">
@@ -4081,13 +4106,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="17.45" customHeight="1">
+    <row r="70" spans="1:24" ht="17.5" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="64">
         <v>2</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="21">
@@ -4117,13 +4142,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="17.45" customHeight="1">
+    <row r="71" spans="1:24" ht="17.5" customHeight="1">
       <c r="A71" s="44"/>
       <c r="B71" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="50">
@@ -4162,13 +4187,13 @@
       <c r="W71" s="52"/>
       <c r="X71" s="52"/>
     </row>
-    <row r="72" spans="1:24" ht="17.45" customHeight="1" thickBot="1">
+    <row r="72" spans="1:24" ht="17.5" customHeight="1" thickBot="1">
       <c r="A72" s="17"/>
       <c r="B72" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="19">
@@ -4243,23 +4268,23 @@
       <c r="X75"/>
     </row>
     <row r="76" spans="1:24" s="13" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="70"/>
-      <c r="O76" s="70"/>
-      <c r="P76" s="70"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76"/>
@@ -4270,21 +4295,21 @@
       <c r="X76"/>
     </row>
     <row r="77" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="70"/>
-      <c r="O77" s="70"/>
-      <c r="P77" s="70"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="79"/>
+      <c r="P77" s="79"/>
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77"/>
@@ -4295,21 +4320,21 @@
       <c r="X77"/>
     </row>
     <row r="78" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="79"/>
+      <c r="P78" s="79"/>
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78"/>
@@ -4320,21 +4345,21 @@
       <c r="X78"/>
     </row>
     <row r="79" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
+      <c r="P79" s="79"/>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>
@@ -4345,21 +4370,21 @@
       <c r="X79"/>
     </row>
     <row r="80" spans="1:24" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
+      <c r="M80" s="79"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="79"/>
+      <c r="P80" s="79"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80"/>
@@ -4410,7 +4435,7 @@
       <c r="W82"/>
       <c r="X82"/>
     </row>
-    <row r="83" spans="1:24" ht="14.25">
+    <row r="83" spans="1:24" ht="14">
       <c r="C83" s="23"/>
     </row>
     <row r="84" spans="1:24">
@@ -4442,15 +4467,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B76:P80"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B76:P80"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C10">
     <cfRule type="cellIs" dxfId="10" priority="92" stopIfTrue="1" operator="equal">
@@ -4508,7 +4533,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B82" r:id="rId1" display="http://timss2019.org/download"/>
+    <hyperlink ref="B82" r:id="rId1" display="http://timss2019.org/download" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0.15" footer="0"/>
